--- a/BackTest/2019-11-01 BackTest HYC.xlsx
+++ b/BackTest/2019-11-01 BackTest HYC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.1699999999999999</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>42.85714285714268</v>
+      </c>
       <c r="L12" t="n">
         <v>5.74</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.2000000000000002</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>5.743</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.21</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>5.747</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.2400000000000002</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>44.44444444444456</v>
+      </c>
       <c r="L15" t="n">
         <v>5.755</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.25</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>55.55555555555544</v>
+      </c>
       <c r="L16" t="n">
         <v>5.763999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.2999999999999998</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>5.263157894736744</v>
+      </c>
       <c r="L17" t="n">
         <v>5.768999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.3300000000000001</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-14.28571428571441</v>
+      </c>
       <c r="L18" t="n">
         <v>5.766999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.3499999999999996</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-27.27272727272713</v>
+      </c>
       <c r="L19" t="n">
         <v>5.761999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-27.27272727272713</v>
+      </c>
       <c r="L20" t="n">
         <v>5.757</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-47.36842105263162</v>
+      </c>
       <c r="L21" t="n">
         <v>5.750999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-37.49999999999993</v>
+      </c>
       <c r="L22" t="n">
         <v>5.741999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.4299999999999997</v>
       </c>
       <c r="K23" t="n">
-        <v>10.00000000000002</v>
+        <v>9.09090909090931</v>
       </c>
       <c r="L23" t="n">
         <v>5.742999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>0.4299999999999997</v>
       </c>
       <c r="K24" t="n">
-        <v>15.7894736842107</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L24" t="n">
         <v>5.744999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>0.4299999999999997</v>
       </c>
       <c r="K25" t="n">
-        <v>18.91891891891904</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L25" t="n">
         <v>5.744</v>
@@ -1564,7 +1586,7 @@
         <v>0.4499999999999993</v>
       </c>
       <c r="K26" t="n">
-        <v>23.07692307692311</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>5.744</v>
@@ -1613,7 +1635,7 @@
         <v>0.4499999999999993</v>
       </c>
       <c r="K27" t="n">
-        <v>26.31578947368419</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L27" t="n">
         <v>5.749</v>
@@ -1662,7 +1684,7 @@
         <v>0.4599999999999991</v>
       </c>
       <c r="K28" t="n">
-        <v>14.28571428571428</v>
+        <v>81.81818181818211</v>
       </c>
       <c r="L28" t="n">
         <v>5.755999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>0.4799999999999995</v>
       </c>
       <c r="K29" t="n">
-        <v>5.555555555555445</v>
+        <v>49.99999999999963</v>
       </c>
       <c r="L29" t="n">
         <v>5.763</v>
@@ -1760,7 +1782,7 @@
         <v>0.4999999999999991</v>
       </c>
       <c r="K30" t="n">
-        <v>-2.702702702702651</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L30" t="n">
         <v>5.766999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>0.5399999999999991</v>
       </c>
       <c r="K31" t="n">
-        <v>5.000000000000123</v>
+        <v>44.44444444444456</v>
       </c>
       <c r="L31" t="n">
         <v>5.774999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>0.5399999999999991</v>
       </c>
       <c r="K32" t="n">
-        <v>-2.702702702702651</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L32" t="n">
         <v>5.782999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>0.5399999999999991</v>
       </c>
       <c r="K33" t="n">
-        <v>5.882352941176625</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L33" t="n">
         <v>5.783999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>0.5699999999999994</v>
       </c>
       <c r="K34" t="n">
-        <v>16.66666666666683</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L34" t="n">
         <v>5.787999999999998</v>
@@ -2013,7 +2035,7 @@
         <v>0.5999999999999988</v>
       </c>
       <c r="K35" t="n">
-        <v>16.66666666666663</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>5.794999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>0.5999999999999988</v>
       </c>
       <c r="K36" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>5.799999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>0.6699999999999982</v>
       </c>
       <c r="K37" t="n">
-        <v>8.108108108108212</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L37" t="n">
         <v>5.798</v>
@@ -2166,7 +2188,7 @@
         <v>0.7899999999999983</v>
       </c>
       <c r="K38" t="n">
-        <v>39.13043478260898</v>
+        <v>41.93548387096816</v>
       </c>
       <c r="L38" t="n">
         <v>5.808999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>0.8199999999999976</v>
       </c>
       <c r="K39" t="n">
-        <v>48.93617021276607</v>
+        <v>56.25000000000018</v>
       </c>
       <c r="L39" t="n">
         <v>5.825</v>
@@ -2268,7 +2290,7 @@
         <v>0.8499999999999979</v>
       </c>
       <c r="K40" t="n">
-        <v>51.02040816326547</v>
+        <v>54.83870967741956</v>
       </c>
       <c r="L40" t="n">
         <v>5.845999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>0.8499999999999979</v>
       </c>
       <c r="K41" t="n">
-        <v>51.02040816326547</v>
+        <v>54.83870967741956</v>
       </c>
       <c r="L41" t="n">
         <v>5.862999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>0.9199999999999982</v>
       </c>
       <c r="K42" t="n">
-        <v>32.14285714285717</v>
+        <v>26.31578947368419</v>
       </c>
       <c r="L42" t="n">
         <v>5.872999999999998</v>
@@ -2421,7 +2443,7 @@
         <v>0.9899999999999984</v>
       </c>
       <c r="K43" t="n">
-        <v>32.14285714285717</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>5.889999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>0.9999999999999982</v>
       </c>
       <c r="K44" t="n">
-        <v>29.82456140350884</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L44" t="n">
         <v>5.902999999999998</v>
@@ -2523,7 +2545,7 @@
         <v>1.079999999999998</v>
       </c>
       <c r="K45" t="n">
-        <v>13.84615384615386</v>
+        <v>4.166666666666767</v>
       </c>
       <c r="L45" t="n">
         <v>5.904999999999998</v>
@@ -2574,7 +2596,7 @@
         <v>1.149999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>20.0000000000001</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>5.913999999999998</v>
@@ -2625,7 +2647,7 @@
         <v>1.159999999999999</v>
       </c>
       <c r="K47" t="n">
-        <v>18.30985915492957</v>
+        <v>8.108108108107913</v>
       </c>
       <c r="L47" t="n">
         <v>5.928999999999998</v>
@@ -2676,7 +2698,7 @@
         <v>1.18</v>
       </c>
       <c r="K48" t="n">
-        <v>22.22222222222222</v>
+        <v>5.555555555555651</v>
       </c>
       <c r="L48" t="n">
         <v>5.933999999999998</v>
@@ -2727,7 +2749,7 @@
         <v>1.19</v>
       </c>
       <c r="K49" t="n">
-        <v>23.9436619718311</v>
+        <v>-5.882352941176317</v>
       </c>
       <c r="L49" t="n">
         <v>5.934999999999999</v>
